--- a/Code/Results/Cases/Case_3_123/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_123/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011195846498453</v>
+        <v>1.036368503616036</v>
       </c>
       <c r="D2">
-        <v>1.025528276043685</v>
+        <v>1.038649677590726</v>
       </c>
       <c r="E2">
-        <v>1.02438242422819</v>
+        <v>1.045562381905004</v>
       </c>
       <c r="F2">
-        <v>1.031457455296491</v>
+        <v>1.057154424233269</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046478628013076</v>
+        <v>1.038918393331246</v>
       </c>
       <c r="J2">
-        <v>1.033046771639061</v>
+        <v>1.041477200329312</v>
       </c>
       <c r="K2">
-        <v>1.036643058664501</v>
+        <v>1.041437108288838</v>
       </c>
       <c r="L2">
-        <v>1.035512210838125</v>
+        <v>1.048330273227786</v>
       </c>
       <c r="M2">
-        <v>1.042495266365166</v>
+        <v>1.059890171113681</v>
       </c>
       <c r="N2">
-        <v>1.034513816546913</v>
+        <v>1.042956217412884</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01508261658538</v>
+        <v>1.037197220205669</v>
       </c>
       <c r="D3">
-        <v>1.028255645742846</v>
+        <v>1.039251831739385</v>
       </c>
       <c r="E3">
-        <v>1.027739459695811</v>
+        <v>1.046333088764091</v>
       </c>
       <c r="F3">
-        <v>1.035454517355604</v>
+        <v>1.058084535406938</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047547585621179</v>
+        <v>1.039102914674604</v>
       </c>
       <c r="J3">
-        <v>1.035170391607561</v>
+        <v>1.041950460660396</v>
       </c>
       <c r="K3">
-        <v>1.038539317675838</v>
+        <v>1.041849868443189</v>
       </c>
       <c r="L3">
-        <v>1.038029297513456</v>
+        <v>1.048912551810137</v>
       </c>
       <c r="M3">
-        <v>1.045652991244531</v>
+        <v>1.060633766890124</v>
       </c>
       <c r="N3">
-        <v>1.036640452299347</v>
+        <v>1.043430149827922</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017551940471535</v>
+        <v>1.037734090527606</v>
       </c>
       <c r="D4">
-        <v>1.02999134781946</v>
+        <v>1.039641971630819</v>
       </c>
       <c r="E4">
-        <v>1.029877794552011</v>
+        <v>1.046832772919297</v>
       </c>
       <c r="F4">
-        <v>1.038000506789649</v>
+        <v>1.058687658469361</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048218840679265</v>
+        <v>1.039221462109692</v>
       </c>
       <c r="J4">
-        <v>1.036517078234233</v>
+        <v>1.0422566566155</v>
       </c>
       <c r="K4">
-        <v>1.039740792559249</v>
+        <v>1.042116760911925</v>
       </c>
       <c r="L4">
-        <v>1.039628513379725</v>
+        <v>1.049289647828204</v>
       </c>
       <c r="M4">
-        <v>1.047660951591787</v>
+        <v>1.061115570652941</v>
       </c>
       <c r="N4">
-        <v>1.037989051375496</v>
+        <v>1.043736780616404</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018579443539876</v>
+        <v>1.03795994125452</v>
       </c>
       <c r="D5">
-        <v>1.030714255348778</v>
+        <v>1.039806105826423</v>
       </c>
       <c r="E5">
-        <v>1.030768877266991</v>
+        <v>1.047043074211383</v>
       </c>
       <c r="F5">
-        <v>1.039061477528485</v>
+        <v>1.05894151570007</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048496236715522</v>
+        <v>1.039271095212772</v>
       </c>
       <c r="J5">
-        <v>1.037076822781989</v>
+        <v>1.042385371742701</v>
       </c>
       <c r="K5">
-        <v>1.04023992451751</v>
+        <v>1.042228915586639</v>
       </c>
       <c r="L5">
-        <v>1.040293949978453</v>
+        <v>1.049448254858361</v>
       </c>
       <c r="M5">
-        <v>1.048496888481497</v>
+        <v>1.061318274338243</v>
       </c>
       <c r="N5">
-        <v>1.038549590824714</v>
+        <v>1.043865678533848</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018751353653337</v>
+        <v>1.037997871359769</v>
       </c>
       <c r="D6">
-        <v>1.030835242188315</v>
+        <v>1.039833671630663</v>
       </c>
       <c r="E6">
-        <v>1.030918039096326</v>
+        <v>1.047078398397379</v>
       </c>
       <c r="F6">
-        <v>1.039239078706195</v>
+        <v>1.058984157235396</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048542533877252</v>
+        <v>1.039279416832328</v>
       </c>
       <c r="J6">
-        <v>1.037170435607565</v>
+        <v>1.042406982976782</v>
       </c>
       <c r="K6">
-        <v>1.040323385078812</v>
+        <v>1.04224774406364</v>
       </c>
       <c r="L6">
-        <v>1.040405282021987</v>
+        <v>1.049474890083948</v>
       </c>
       <c r="M6">
-        <v>1.048636771369913</v>
+        <v>1.061352318125584</v>
       </c>
       <c r="N6">
-        <v>1.038643336591239</v>
+        <v>1.043887320458362</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017565711238112</v>
+        <v>1.037737107766983</v>
       </c>
       <c r="D7">
-        <v>1.030001033755537</v>
+        <v>1.039644164333043</v>
       </c>
       <c r="E7">
-        <v>1.029889731867132</v>
+        <v>1.046835582057973</v>
       </c>
       <c r="F7">
-        <v>1.038014719930284</v>
+        <v>1.058691049328791</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048222565998437</v>
+        <v>1.039222126113029</v>
       </c>
       <c r="J7">
-        <v>1.036524582510205</v>
+        <v>1.042258376552814</v>
       </c>
       <c r="K7">
-        <v>1.039747485248113</v>
+        <v>1.042118259714049</v>
       </c>
       <c r="L7">
-        <v>1.03963743173808</v>
+        <v>1.049291766846794</v>
       </c>
       <c r="M7">
-        <v>1.047672153366918</v>
+        <v>1.061118278588876</v>
       </c>
       <c r="N7">
-        <v>1.037996566308401</v>
+        <v>1.043738502996225</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012519062084181</v>
+        <v>1.036648439741539</v>
       </c>
       <c r="D8">
-        <v>1.026456138459088</v>
+        <v>1.038853072618784</v>
       </c>
       <c r="E8">
-        <v>1.025524115458376</v>
+        <v>1.045822640801982</v>
       </c>
       <c r="F8">
-        <v>1.032816827931979</v>
+        <v>1.057468493712356</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04684417443093</v>
+        <v>1.038980928806292</v>
       </c>
       <c r="J8">
-        <v>1.033770242323831</v>
+        <v>1.041637147399156</v>
       </c>
       <c r="K8">
-        <v>1.03728928353143</v>
+        <v>1.041576641328803</v>
       </c>
       <c r="L8">
-        <v>1.036369098980167</v>
+        <v>1.048526989298314</v>
       </c>
       <c r="M8">
-        <v>1.043569891393309</v>
+        <v>1.060141337712921</v>
       </c>
       <c r="N8">
-        <v>1.035238314643035</v>
+        <v>1.043116391625913</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003260641908656</v>
+        <v>1.034735005755329</v>
       </c>
       <c r="D9">
-        <v>1.01997823320773</v>
+        <v>1.037463018776066</v>
       </c>
       <c r="E9">
-        <v>1.017560473523985</v>
+        <v>1.044045334830309</v>
       </c>
       <c r="F9">
-        <v>1.023333989272872</v>
+        <v>1.055324073130622</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044254452425134</v>
+        <v>1.038549427571286</v>
       </c>
       <c r="J9">
-        <v>1.028698781600734</v>
+        <v>1.040542248251617</v>
       </c>
       <c r="K9">
-        <v>1.032755284864305</v>
+        <v>1.040620831372945</v>
       </c>
       <c r="L9">
-        <v>1.030374927169601</v>
+        <v>1.047181889132225</v>
       </c>
       <c r="M9">
-        <v>1.03605950202742</v>
+        <v>1.0584248756132</v>
       </c>
       <c r="N9">
-        <v>1.030159651864007</v>
+        <v>1.042019937595999</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9968193707103078</v>
+        <v>1.033462801171579</v>
       </c>
       <c r="D10">
-        <v>1.015491516258364</v>
+        <v>1.036539075599532</v>
       </c>
       <c r="E10">
-        <v>1.012052679463327</v>
+        <v>1.042865699232217</v>
       </c>
       <c r="F10">
-        <v>1.016773677940265</v>
+        <v>1.053901213811387</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042413454584656</v>
+        <v>1.038257444417105</v>
       </c>
       <c r="J10">
-        <v>1.025159752562477</v>
+        <v>1.039812245792888</v>
       </c>
       <c r="K10">
-        <v>1.029586588677389</v>
+        <v>1.039982749225383</v>
       </c>
       <c r="L10">
-        <v>1.026207676358262</v>
+        <v>1.046286945494941</v>
       </c>
       <c r="M10">
-        <v>1.030846541872696</v>
+        <v>1.057284049484269</v>
       </c>
       <c r="N10">
-        <v>1.026615596998583</v>
+        <v>1.041288898450045</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9939608934843858</v>
+        <v>1.032912753869701</v>
       </c>
       <c r="D11">
-        <v>1.013505858715854</v>
+        <v>1.036139674302218</v>
       </c>
       <c r="E11">
-        <v>1.009616675593256</v>
+        <v>1.042356168463004</v>
       </c>
       <c r="F11">
-        <v>1.013871466662691</v>
+        <v>1.053286725830584</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041587594682205</v>
+        <v>1.038129997648608</v>
       </c>
       <c r="J11">
-        <v>1.023587082479396</v>
+        <v>1.039496145790144</v>
       </c>
       <c r="K11">
-        <v>1.028177491065057</v>
+        <v>1.039706260138893</v>
       </c>
       <c r="L11">
-        <v>1.024359485996265</v>
+        <v>1.045899867485384</v>
       </c>
       <c r="M11">
-        <v>1.028536444360076</v>
+        <v>1.056790905796714</v>
       </c>
       <c r="N11">
-        <v>1.025040693543596</v>
+        <v>1.040972349549041</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9928882033866473</v>
+        <v>1.032708567513784</v>
       </c>
       <c r="D12">
-        <v>1.012761584502921</v>
+        <v>1.035991421636819</v>
       </c>
       <c r="E12">
-        <v>1.008703802302065</v>
+        <v>1.04216709708167</v>
       </c>
       <c r="F12">
-        <v>1.01278375757723</v>
+        <v>1.05305872286793</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041276383527239</v>
+        <v>1.038082506275712</v>
       </c>
       <c r="J12">
-        <v>1.022996626987882</v>
+        <v>1.039378732813471</v>
       </c>
       <c r="K12">
-        <v>1.02764830975026</v>
+        <v>1.03960353165995</v>
       </c>
       <c r="L12">
-        <v>1.023666129592744</v>
+        <v>1.045756156803842</v>
       </c>
       <c r="M12">
-        <v>1.02767007187988</v>
+        <v>1.05660785838252</v>
       </c>
       <c r="N12">
-        <v>1.024449399537557</v>
+        <v>1.040854769832473</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.993118801816303</v>
+        <v>1.032752360465343</v>
       </c>
       <c r="D13">
-        <v>1.012921542116861</v>
+        <v>1.036023217658315</v>
       </c>
       <c r="E13">
-        <v>1.008899986185375</v>
+        <v>1.042207644860457</v>
       </c>
       <c r="F13">
-        <v>1.013017521276269</v>
+        <v>1.053107619149164</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041343343067741</v>
+        <v>1.038092700202137</v>
       </c>
       <c r="J13">
-        <v>1.023123570753631</v>
+        <v>1.039403918246431</v>
       </c>
       <c r="K13">
-        <v>1.02776208609275</v>
+        <v>1.039625568520358</v>
       </c>
       <c r="L13">
-        <v>1.023815171898253</v>
+        <v>1.045786980162986</v>
       </c>
       <c r="M13">
-        <v>1.027856293276781</v>
+        <v>1.056647116850145</v>
       </c>
       <c r="N13">
-        <v>1.024576523578015</v>
+        <v>1.040879991031637</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9938724504556148</v>
+        <v>1.032895873187943</v>
       </c>
       <c r="D14">
-        <v>1.013444475329001</v>
+        <v>1.036127417584152</v>
       </c>
       <c r="E14">
-        <v>1.009541383207431</v>
+        <v>1.042340535855933</v>
       </c>
       <c r="F14">
-        <v>1.01378175683704</v>
+        <v>1.053267874020746</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041561961481259</v>
+        <v>1.038126075092997</v>
       </c>
       <c r="J14">
-        <v>1.023538405168144</v>
+        <v>1.039486440376558</v>
       </c>
       <c r="K14">
-        <v>1.028133867971102</v>
+        <v>1.039697769137386</v>
       </c>
       <c r="L14">
-        <v>1.024302314505555</v>
+        <v>1.045887986933815</v>
       </c>
       <c r="M14">
-        <v>1.028465001194697</v>
+        <v>1.056775772417286</v>
       </c>
       <c r="N14">
-        <v>1.024991947104979</v>
+        <v>1.040962630352654</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9943353351132965</v>
+        <v>1.032984312819246</v>
       </c>
       <c r="D15">
-        <v>1.013765773913087</v>
+        <v>1.036191632267059</v>
       </c>
       <c r="E15">
-        <v>1.009935493617931</v>
+        <v>1.04242243975324</v>
       </c>
       <c r="F15">
-        <v>1.014251328508866</v>
+        <v>1.053366644889583</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041696065542173</v>
+        <v>1.038146618348273</v>
       </c>
       <c r="J15">
-        <v>1.023793156392463</v>
+        <v>1.039537285106774</v>
       </c>
       <c r="K15">
-        <v>1.028362162510814</v>
+        <v>1.039742250630605</v>
       </c>
       <c r="L15">
-        <v>1.024601541851156</v>
+        <v>1.045950229503609</v>
       </c>
       <c r="M15">
-        <v>1.028838935394212</v>
+        <v>1.056855058384127</v>
       </c>
       <c r="N15">
-        <v>1.025247060105257</v>
+        <v>1.041013547288219</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9970075747296451</v>
+        <v>1.03349932353666</v>
       </c>
       <c r="D16">
-        <v>1.015622371646445</v>
+        <v>1.036565596861766</v>
       </c>
       <c r="E16">
-        <v>1.012213242544606</v>
+        <v>1.042899541799553</v>
       </c>
       <c r="F16">
-        <v>1.016964953381814</v>
+        <v>1.053942029639856</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042467647935813</v>
+        <v>1.038265881289806</v>
       </c>
       <c r="J16">
-        <v>1.025263256597587</v>
+        <v>1.039833224329547</v>
       </c>
       <c r="K16">
-        <v>1.029679307467073</v>
+        <v>1.040001094884804</v>
       </c>
       <c r="L16">
-        <v>1.026329389147997</v>
+        <v>1.04631264394967</v>
       </c>
       <c r="M16">
-        <v>1.030998711731907</v>
+        <v>1.05731679568016</v>
       </c>
       <c r="N16">
-        <v>1.026719248021294</v>
+        <v>1.041309906778632</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9986648832797983</v>
+        <v>1.033822598377286</v>
       </c>
       <c r="D17">
-        <v>1.016775300058546</v>
+        <v>1.036800356188078</v>
       </c>
       <c r="E17">
-        <v>1.013628089580041</v>
+        <v>1.043199153744549</v>
       </c>
       <c r="F17">
-        <v>1.018650348667504</v>
+        <v>1.05430338823337</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042943863048401</v>
+        <v>1.038340420223264</v>
       </c>
       <c r="J17">
-        <v>1.026174464914131</v>
+        <v>1.040018858969821</v>
       </c>
       <c r="K17">
-        <v>1.030495454613159</v>
+        <v>1.040163409619819</v>
       </c>
       <c r="L17">
-        <v>1.02740131514266</v>
+        <v>1.046540095374968</v>
       </c>
       <c r="M17">
-        <v>1.032339085403406</v>
+        <v>1.057606657776552</v>
       </c>
       <c r="N17">
-        <v>1.027631750358165</v>
+        <v>1.041495805041388</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9996249061895385</v>
+        <v>1.034011238677296</v>
       </c>
       <c r="D18">
-        <v>1.017443665486167</v>
+        <v>1.036937352069827</v>
       </c>
       <c r="E18">
-        <v>1.014448441349915</v>
+        <v>1.043374033696449</v>
       </c>
       <c r="F18">
-        <v>1.01962750400831</v>
+        <v>1.054514318715849</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043218872342567</v>
+        <v>1.038383799432984</v>
       </c>
       <c r="J18">
-        <v>1.02670209161023</v>
+        <v>1.040127136032811</v>
       </c>
       <c r="K18">
-        <v>1.030967941699093</v>
+        <v>1.040258066132529</v>
       </c>
       <c r="L18">
-        <v>1.028022350885802</v>
+        <v>1.046672806154088</v>
       </c>
       <c r="M18">
-        <v>1.033115828603097</v>
+        <v>1.0577758105187</v>
       </c>
       <c r="N18">
-        <v>1.028160126344692</v>
+        <v>1.041604235870228</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9999511348221427</v>
+        <v>1.034075573588311</v>
       </c>
       <c r="D19">
-        <v>1.017670870271105</v>
+        <v>1.036984075052103</v>
       </c>
       <c r="E19">
-        <v>1.014727338713893</v>
+        <v>1.043433683771549</v>
       </c>
       <c r="F19">
-        <v>1.019959700036018</v>
+        <v>1.054586266983099</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043312179526813</v>
+        <v>1.038398573963775</v>
       </c>
       <c r="J19">
-        <v>1.026881350318758</v>
+        <v>1.040164055593151</v>
       </c>
       <c r="K19">
-        <v>1.031128450493689</v>
+        <v>1.040290338309885</v>
       </c>
       <c r="L19">
-        <v>1.028233403906119</v>
+        <v>1.046718064215891</v>
       </c>
       <c r="M19">
-        <v>1.033379827879013</v>
+        <v>1.057833500935053</v>
       </c>
       <c r="N19">
-        <v>1.028339639621148</v>
+        <v>1.041641207860579</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9984877618769029</v>
+        <v>1.033787905805665</v>
       </c>
       <c r="D20">
-        <v>1.016652029623742</v>
+        <v>1.036775162025127</v>
       </c>
       <c r="E20">
-        <v>1.013476799701488</v>
+        <v>1.043166995650797</v>
       </c>
       <c r="F20">
-        <v>1.018470135892291</v>
+        <v>1.054264601713168</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042893056019905</v>
+        <v>1.03833243304194</v>
       </c>
       <c r="J20">
-        <v>1.026077102487564</v>
+        <v>1.039998942170529</v>
       </c>
       <c r="K20">
-        <v>1.03040825926493</v>
+        <v>1.040145996733689</v>
       </c>
       <c r="L20">
-        <v>1.027286744114251</v>
+        <v>1.046515687613098</v>
       </c>
       <c r="M20">
-        <v>1.032195803360546</v>
+        <v>1.057575549917715</v>
       </c>
       <c r="N20">
-        <v>1.027534249665785</v>
+        <v>1.041475859957957</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9936508254741733</v>
+        <v>1.032853608784784</v>
       </c>
       <c r="D21">
-        <v>1.01329067208032</v>
+        <v>1.036096730452235</v>
       </c>
       <c r="E21">
-        <v>1.00935273248858</v>
+        <v>1.042301397481694</v>
       </c>
       <c r="F21">
-        <v>1.013556979992679</v>
+        <v>1.053220676170215</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04149770780536</v>
+        <v>1.038116251208975</v>
       </c>
       <c r="J21">
-        <v>1.023416422641114</v>
+        <v>1.039462139638311</v>
       </c>
       <c r="K21">
-        <v>1.02802454882215</v>
+        <v>1.039676508621712</v>
       </c>
       <c r="L21">
-        <v>1.024159054779779</v>
+        <v>1.045858241087183</v>
       </c>
       <c r="M21">
-        <v>1.028285983976243</v>
+        <v>1.056737883009538</v>
       </c>
       <c r="N21">
-        <v>1.024869791348769</v>
+        <v>1.040938295104571</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9905461750562851</v>
+        <v>1.032266907265031</v>
       </c>
       <c r="D22">
-        <v>1.011138271085065</v>
+        <v>1.035670769006111</v>
       </c>
       <c r="E22">
-        <v>1.006713099676392</v>
+        <v>1.041758267731259</v>
       </c>
       <c r="F22">
-        <v>1.010411528374055</v>
+        <v>1.052565738547038</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040594575835038</v>
+        <v>1.037979450212675</v>
       </c>
       <c r="J22">
-        <v>1.021706987977026</v>
+        <v>1.039124634899127</v>
       </c>
       <c r="K22">
-        <v>1.026492259471038</v>
+        <v>1.039381160713687</v>
       </c>
       <c r="L22">
-        <v>1.022152731567319</v>
+        <v>1.045445268606067</v>
       </c>
       <c r="M22">
-        <v>1.025779514495615</v>
+        <v>1.056211950604604</v>
       </c>
       <c r="N22">
-        <v>1.023157929091383</v>
+        <v>1.040600311069946</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9921982017976092</v>
+        <v>1.032577859272718</v>
       </c>
       <c r="D23">
-        <v>1.012283088936939</v>
+        <v>1.035896522199743</v>
       </c>
       <c r="E23">
-        <v>1.008116967078821</v>
+        <v>1.042046085618701</v>
       </c>
       <c r="F23">
-        <v>1.012084491048767</v>
+        <v>1.052912798149668</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041075839229149</v>
+        <v>1.038052054086094</v>
       </c>
       <c r="J23">
-        <v>1.022616744087648</v>
+        <v>1.039303551717642</v>
       </c>
       <c r="K23">
-        <v>1.027307811263295</v>
+        <v>1.039537745185189</v>
       </c>
       <c r="L23">
-        <v>1.023220195261255</v>
+        <v>1.045664155657868</v>
       </c>
       <c r="M23">
-        <v>1.027112936572145</v>
+        <v>1.056490686428154</v>
       </c>
       <c r="N23">
-        <v>1.024068977160032</v>
+        <v>1.040779481970864</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9985678159510594</v>
+        <v>1.033803581639846</v>
       </c>
       <c r="D24">
-        <v>1.016707742934502</v>
+        <v>1.036786545983095</v>
       </c>
       <c r="E24">
-        <v>1.013545176216628</v>
+        <v>1.043181526134349</v>
       </c>
       <c r="F24">
-        <v>1.018551584511115</v>
+        <v>1.05428212718993</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042916022045031</v>
+        <v>1.038336042408541</v>
       </c>
       <c r="J24">
-        <v>1.026121108305556</v>
+        <v>1.040007941716467</v>
       </c>
       <c r="K24">
-        <v>1.030447670068549</v>
+        <v>1.040153864926036</v>
       </c>
       <c r="L24">
-        <v>1.027338526791017</v>
+        <v>1.046526716299824</v>
       </c>
       <c r="M24">
-        <v>1.032260562003011</v>
+        <v>1.057589605969769</v>
       </c>
       <c r="N24">
-        <v>1.027578317977086</v>
+        <v>1.041484872284282</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005699797698713</v>
+        <v>1.035229079029728</v>
       </c>
       <c r="D25">
-        <v>1.021681596356134</v>
+        <v>1.037821902191335</v>
       </c>
       <c r="E25">
-        <v>1.019653018867276</v>
+        <v>1.04450389620507</v>
       </c>
       <c r="F25">
-        <v>1.025825951382467</v>
+        <v>1.055877274995038</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044943651696808</v>
+        <v>1.038661744705029</v>
       </c>
       <c r="J25">
-        <v>1.030036851797609</v>
+        <v>1.04082532364481</v>
       </c>
       <c r="K25">
-        <v>1.033952405198525</v>
+        <v>1.040868090739263</v>
       </c>
       <c r="L25">
-        <v>1.031953719566928</v>
+        <v>1.047529320529386</v>
       </c>
       <c r="M25">
-        <v>1.038036157668123</v>
+        <v>1.058868015701874</v>
       </c>
       <c r="N25">
-        <v>1.031499622274039</v>
+        <v>1.04230341498872</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_123/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_123/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036368503616036</v>
+        <v>1.011195846498453</v>
       </c>
       <c r="D2">
-        <v>1.038649677590726</v>
+        <v>1.025528276043685</v>
       </c>
       <c r="E2">
-        <v>1.045562381905004</v>
+        <v>1.02438242422819</v>
       </c>
       <c r="F2">
-        <v>1.057154424233269</v>
+        <v>1.03145745529649</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038918393331246</v>
+        <v>1.046478628013076</v>
       </c>
       <c r="J2">
-        <v>1.041477200329312</v>
+        <v>1.033046771639061</v>
       </c>
       <c r="K2">
-        <v>1.041437108288838</v>
+        <v>1.036643058664501</v>
       </c>
       <c r="L2">
-        <v>1.048330273227786</v>
+        <v>1.035512210838125</v>
       </c>
       <c r="M2">
-        <v>1.059890171113681</v>
+        <v>1.042495266365166</v>
       </c>
       <c r="N2">
-        <v>1.042956217412884</v>
+        <v>1.034513816546913</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037197220205669</v>
+        <v>1.01508261658538</v>
       </c>
       <c r="D3">
-        <v>1.039251831739385</v>
+        <v>1.028255645742846</v>
       </c>
       <c r="E3">
-        <v>1.046333088764091</v>
+        <v>1.027739459695811</v>
       </c>
       <c r="F3">
-        <v>1.058084535406938</v>
+        <v>1.035454517355605</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039102914674604</v>
+        <v>1.047547585621179</v>
       </c>
       <c r="J3">
-        <v>1.041950460660396</v>
+        <v>1.035170391607561</v>
       </c>
       <c r="K3">
-        <v>1.041849868443189</v>
+        <v>1.038539317675838</v>
       </c>
       <c r="L3">
-        <v>1.048912551810137</v>
+        <v>1.038029297513456</v>
       </c>
       <c r="M3">
-        <v>1.060633766890124</v>
+        <v>1.045652991244531</v>
       </c>
       <c r="N3">
-        <v>1.043430149827922</v>
+        <v>1.036640452299347</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037734090527606</v>
+        <v>1.017551940471535</v>
       </c>
       <c r="D4">
-        <v>1.039641971630819</v>
+        <v>1.02999134781946</v>
       </c>
       <c r="E4">
-        <v>1.046832772919297</v>
+        <v>1.02987779455201</v>
       </c>
       <c r="F4">
-        <v>1.058687658469361</v>
+        <v>1.038000506789648</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039221462109692</v>
+        <v>1.048218840679265</v>
       </c>
       <c r="J4">
-        <v>1.0422566566155</v>
+        <v>1.036517078234233</v>
       </c>
       <c r="K4">
-        <v>1.042116760911925</v>
+        <v>1.039740792559248</v>
       </c>
       <c r="L4">
-        <v>1.049289647828204</v>
+        <v>1.039628513379725</v>
       </c>
       <c r="M4">
-        <v>1.061115570652941</v>
+        <v>1.047660951591786</v>
       </c>
       <c r="N4">
-        <v>1.043736780616404</v>
+        <v>1.037989051375496</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03795994125452</v>
+        <v>1.018579443539876</v>
       </c>
       <c r="D5">
-        <v>1.039806105826423</v>
+        <v>1.030714255348778</v>
       </c>
       <c r="E5">
-        <v>1.047043074211383</v>
+        <v>1.030768877266991</v>
       </c>
       <c r="F5">
-        <v>1.05894151570007</v>
+        <v>1.039061477528485</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039271095212772</v>
+        <v>1.048496236715522</v>
       </c>
       <c r="J5">
-        <v>1.042385371742701</v>
+        <v>1.037076822781989</v>
       </c>
       <c r="K5">
-        <v>1.042228915586639</v>
+        <v>1.04023992451751</v>
       </c>
       <c r="L5">
-        <v>1.049448254858361</v>
+        <v>1.040293949978453</v>
       </c>
       <c r="M5">
-        <v>1.061318274338243</v>
+        <v>1.048496888481497</v>
       </c>
       <c r="N5">
-        <v>1.043865678533848</v>
+        <v>1.038549590824713</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037997871359769</v>
+        <v>1.018751353653335</v>
       </c>
       <c r="D6">
-        <v>1.039833671630663</v>
+        <v>1.030835242188314</v>
       </c>
       <c r="E6">
-        <v>1.047078398397379</v>
+        <v>1.030918039096326</v>
       </c>
       <c r="F6">
-        <v>1.058984157235396</v>
+        <v>1.039239078706194</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039279416832328</v>
+        <v>1.048542533877252</v>
       </c>
       <c r="J6">
-        <v>1.042406982976782</v>
+        <v>1.037170435607564</v>
       </c>
       <c r="K6">
-        <v>1.04224774406364</v>
+        <v>1.040323385078811</v>
       </c>
       <c r="L6">
-        <v>1.049474890083948</v>
+        <v>1.040405282021986</v>
       </c>
       <c r="M6">
-        <v>1.061352318125584</v>
+        <v>1.048636771369912</v>
       </c>
       <c r="N6">
-        <v>1.043887320458362</v>
+        <v>1.038643336591239</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037737107766983</v>
+        <v>1.017565711238112</v>
       </c>
       <c r="D7">
-        <v>1.039644164333043</v>
+        <v>1.030001033755537</v>
       </c>
       <c r="E7">
-        <v>1.046835582057973</v>
+        <v>1.029889731867132</v>
       </c>
       <c r="F7">
-        <v>1.058691049328791</v>
+        <v>1.038014719930284</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039222126113029</v>
+        <v>1.048222565998438</v>
       </c>
       <c r="J7">
-        <v>1.042258376552814</v>
+        <v>1.036524582510205</v>
       </c>
       <c r="K7">
-        <v>1.042118259714049</v>
+        <v>1.039747485248114</v>
       </c>
       <c r="L7">
-        <v>1.049291766846794</v>
+        <v>1.03963743173808</v>
       </c>
       <c r="M7">
-        <v>1.061118278588876</v>
+        <v>1.047672153366919</v>
       </c>
       <c r="N7">
-        <v>1.043738502996225</v>
+        <v>1.037996566308401</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036648439741539</v>
+        <v>1.012519062084181</v>
       </c>
       <c r="D8">
-        <v>1.038853072618784</v>
+        <v>1.026456138459088</v>
       </c>
       <c r="E8">
-        <v>1.045822640801982</v>
+        <v>1.025524115458376</v>
       </c>
       <c r="F8">
-        <v>1.057468493712356</v>
+        <v>1.032816827931978</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038980928806292</v>
+        <v>1.04684417443093</v>
       </c>
       <c r="J8">
-        <v>1.041637147399156</v>
+        <v>1.033770242323831</v>
       </c>
       <c r="K8">
-        <v>1.041576641328803</v>
+        <v>1.03728928353143</v>
       </c>
       <c r="L8">
-        <v>1.048526989298314</v>
+        <v>1.036369098980166</v>
       </c>
       <c r="M8">
-        <v>1.060141337712921</v>
+        <v>1.043569891393308</v>
       </c>
       <c r="N8">
-        <v>1.043116391625913</v>
+        <v>1.035238314643035</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034735005755329</v>
+        <v>1.003260641908656</v>
       </c>
       <c r="D9">
-        <v>1.037463018776066</v>
+        <v>1.01997823320773</v>
       </c>
       <c r="E9">
-        <v>1.044045334830309</v>
+        <v>1.017560473523985</v>
       </c>
       <c r="F9">
-        <v>1.055324073130622</v>
+        <v>1.023333989272872</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038549427571286</v>
+        <v>1.044254452425134</v>
       </c>
       <c r="J9">
-        <v>1.040542248251617</v>
+        <v>1.028698781600734</v>
       </c>
       <c r="K9">
-        <v>1.040620831372945</v>
+        <v>1.032755284864305</v>
       </c>
       <c r="L9">
-        <v>1.047181889132225</v>
+        <v>1.030374927169601</v>
       </c>
       <c r="M9">
-        <v>1.0584248756132</v>
+        <v>1.03605950202742</v>
       </c>
       <c r="N9">
-        <v>1.042019937595999</v>
+        <v>1.030159651864007</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033462801171579</v>
+        <v>0.996819370710308</v>
       </c>
       <c r="D10">
-        <v>1.036539075599532</v>
+        <v>1.015491516258364</v>
       </c>
       <c r="E10">
-        <v>1.042865699232217</v>
+        <v>1.012052679463327</v>
       </c>
       <c r="F10">
-        <v>1.053901213811387</v>
+        <v>1.016773677940265</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038257444417105</v>
+        <v>1.042413454584656</v>
       </c>
       <c r="J10">
-        <v>1.039812245792888</v>
+        <v>1.025159752562477</v>
       </c>
       <c r="K10">
-        <v>1.039982749225383</v>
+        <v>1.029586588677389</v>
       </c>
       <c r="L10">
-        <v>1.046286945494941</v>
+        <v>1.026207676358262</v>
       </c>
       <c r="M10">
-        <v>1.057284049484269</v>
+        <v>1.030846541872696</v>
       </c>
       <c r="N10">
-        <v>1.041288898450045</v>
+        <v>1.026615596998583</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032912753869701</v>
+        <v>0.9939608934843851</v>
       </c>
       <c r="D11">
-        <v>1.036139674302218</v>
+        <v>1.013505858715853</v>
       </c>
       <c r="E11">
-        <v>1.042356168463004</v>
+        <v>1.009616675593255</v>
       </c>
       <c r="F11">
-        <v>1.053286725830584</v>
+        <v>1.01387146666269</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038129997648608</v>
+        <v>1.041587594682205</v>
       </c>
       <c r="J11">
-        <v>1.039496145790144</v>
+        <v>1.023587082479395</v>
       </c>
       <c r="K11">
-        <v>1.039706260138893</v>
+        <v>1.028177491065057</v>
       </c>
       <c r="L11">
-        <v>1.045899867485384</v>
+        <v>1.024359485996264</v>
       </c>
       <c r="M11">
-        <v>1.056790905796714</v>
+        <v>1.028536444360075</v>
       </c>
       <c r="N11">
-        <v>1.040972349549041</v>
+        <v>1.025040693543595</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032708567513784</v>
+        <v>0.9928882033866472</v>
       </c>
       <c r="D12">
-        <v>1.035991421636819</v>
+        <v>1.01276158450292</v>
       </c>
       <c r="E12">
-        <v>1.04216709708167</v>
+        <v>1.008703802302065</v>
       </c>
       <c r="F12">
-        <v>1.05305872286793</v>
+        <v>1.01278375757723</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038082506275712</v>
+        <v>1.041276383527239</v>
       </c>
       <c r="J12">
-        <v>1.039378732813471</v>
+        <v>1.022996626987881</v>
       </c>
       <c r="K12">
-        <v>1.03960353165995</v>
+        <v>1.027648309750259</v>
       </c>
       <c r="L12">
-        <v>1.045756156803842</v>
+        <v>1.023666129592744</v>
       </c>
       <c r="M12">
-        <v>1.05660785838252</v>
+        <v>1.02767007187988</v>
       </c>
       <c r="N12">
-        <v>1.040854769832473</v>
+        <v>1.024449399537557</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032752360465343</v>
+        <v>0.9931188018163024</v>
       </c>
       <c r="D13">
-        <v>1.036023217658315</v>
+        <v>1.01292154211686</v>
       </c>
       <c r="E13">
-        <v>1.042207644860457</v>
+        <v>1.008899986185374</v>
       </c>
       <c r="F13">
-        <v>1.053107619149164</v>
+        <v>1.013017521276268</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038092700202137</v>
+        <v>1.041343343067741</v>
       </c>
       <c r="J13">
-        <v>1.039403918246431</v>
+        <v>1.02312357075363</v>
       </c>
       <c r="K13">
-        <v>1.039625568520358</v>
+        <v>1.027762086092749</v>
       </c>
       <c r="L13">
-        <v>1.045786980162986</v>
+        <v>1.023815171898252</v>
       </c>
       <c r="M13">
-        <v>1.056647116850145</v>
+        <v>1.027856293276781</v>
       </c>
       <c r="N13">
-        <v>1.040879991031637</v>
+        <v>1.024576523578014</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032895873187943</v>
+        <v>0.9938724504556149</v>
       </c>
       <c r="D14">
-        <v>1.036127417584152</v>
+        <v>1.013444475329001</v>
       </c>
       <c r="E14">
-        <v>1.042340535855933</v>
+        <v>1.009541383207431</v>
       </c>
       <c r="F14">
-        <v>1.053267874020746</v>
+        <v>1.013781756837041</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038126075092997</v>
+        <v>1.041561961481259</v>
       </c>
       <c r="J14">
-        <v>1.039486440376558</v>
+        <v>1.023538405168144</v>
       </c>
       <c r="K14">
-        <v>1.039697769137386</v>
+        <v>1.028133867971103</v>
       </c>
       <c r="L14">
-        <v>1.045887986933815</v>
+        <v>1.024302314505555</v>
       </c>
       <c r="M14">
-        <v>1.056775772417286</v>
+        <v>1.028465001194697</v>
       </c>
       <c r="N14">
-        <v>1.040962630352654</v>
+        <v>1.024991947104979</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032984312819246</v>
+        <v>0.9943353351132961</v>
       </c>
       <c r="D15">
-        <v>1.036191632267059</v>
+        <v>1.013765773913087</v>
       </c>
       <c r="E15">
-        <v>1.04242243975324</v>
+        <v>1.009935493617931</v>
       </c>
       <c r="F15">
-        <v>1.053366644889583</v>
+        <v>1.014251328508865</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038146618348273</v>
+        <v>1.041696065542173</v>
       </c>
       <c r="J15">
-        <v>1.039537285106774</v>
+        <v>1.023793156392463</v>
       </c>
       <c r="K15">
-        <v>1.039742250630605</v>
+        <v>1.028362162510814</v>
       </c>
       <c r="L15">
-        <v>1.045950229503609</v>
+        <v>1.024601541851155</v>
       </c>
       <c r="M15">
-        <v>1.056855058384127</v>
+        <v>1.028838935394211</v>
       </c>
       <c r="N15">
-        <v>1.041013547288219</v>
+        <v>1.025247060105257</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03349932353666</v>
+        <v>0.9970075747296447</v>
       </c>
       <c r="D16">
-        <v>1.036565596861766</v>
+        <v>1.015622371646444</v>
       </c>
       <c r="E16">
-        <v>1.042899541799553</v>
+        <v>1.012213242544606</v>
       </c>
       <c r="F16">
-        <v>1.053942029639856</v>
+        <v>1.016964953381813</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038265881289806</v>
+        <v>1.042467647935813</v>
       </c>
       <c r="J16">
-        <v>1.039833224329547</v>
+        <v>1.025263256597587</v>
       </c>
       <c r="K16">
-        <v>1.040001094884804</v>
+        <v>1.029679307467073</v>
       </c>
       <c r="L16">
-        <v>1.04631264394967</v>
+        <v>1.026329389147996</v>
       </c>
       <c r="M16">
-        <v>1.05731679568016</v>
+        <v>1.030998711731906</v>
       </c>
       <c r="N16">
-        <v>1.041309906778632</v>
+        <v>1.026719248021294</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033822598377286</v>
+        <v>0.9986648832797984</v>
       </c>
       <c r="D17">
-        <v>1.036800356188078</v>
+        <v>1.016775300058546</v>
       </c>
       <c r="E17">
-        <v>1.043199153744549</v>
+        <v>1.013628089580041</v>
       </c>
       <c r="F17">
-        <v>1.05430338823337</v>
+        <v>1.018650348667504</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038340420223264</v>
+        <v>1.042943863048401</v>
       </c>
       <c r="J17">
-        <v>1.040018858969821</v>
+        <v>1.026174464914131</v>
       </c>
       <c r="K17">
-        <v>1.040163409619819</v>
+        <v>1.030495454613159</v>
       </c>
       <c r="L17">
-        <v>1.046540095374968</v>
+        <v>1.02740131514266</v>
       </c>
       <c r="M17">
-        <v>1.057606657776552</v>
+        <v>1.032339085403406</v>
       </c>
       <c r="N17">
-        <v>1.041495805041388</v>
+        <v>1.027631750358165</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034011238677296</v>
+        <v>0.9996249061895386</v>
       </c>
       <c r="D18">
-        <v>1.036937352069827</v>
+        <v>1.017443665486167</v>
       </c>
       <c r="E18">
-        <v>1.043374033696449</v>
+        <v>1.014448441349915</v>
       </c>
       <c r="F18">
-        <v>1.054514318715849</v>
+        <v>1.01962750400831</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038383799432984</v>
+        <v>1.043218872342567</v>
       </c>
       <c r="J18">
-        <v>1.040127136032811</v>
+        <v>1.02670209161023</v>
       </c>
       <c r="K18">
-        <v>1.040258066132529</v>
+        <v>1.030967941699093</v>
       </c>
       <c r="L18">
-        <v>1.046672806154088</v>
+        <v>1.028022350885802</v>
       </c>
       <c r="M18">
-        <v>1.0577758105187</v>
+        <v>1.033115828603097</v>
       </c>
       <c r="N18">
-        <v>1.041604235870228</v>
+        <v>1.028160126344692</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034075573588311</v>
+        <v>0.9999511348221424</v>
       </c>
       <c r="D19">
-        <v>1.036984075052103</v>
+        <v>1.017670870271105</v>
       </c>
       <c r="E19">
-        <v>1.043433683771549</v>
+        <v>1.014727338713892</v>
       </c>
       <c r="F19">
-        <v>1.054586266983099</v>
+        <v>1.019959700036017</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038398573963775</v>
+        <v>1.043312179526813</v>
       </c>
       <c r="J19">
-        <v>1.040164055593151</v>
+        <v>1.026881350318758</v>
       </c>
       <c r="K19">
-        <v>1.040290338309885</v>
+        <v>1.031128450493689</v>
       </c>
       <c r="L19">
-        <v>1.046718064215891</v>
+        <v>1.028233403906118</v>
       </c>
       <c r="M19">
-        <v>1.057833500935053</v>
+        <v>1.033379827879013</v>
       </c>
       <c r="N19">
-        <v>1.041641207860579</v>
+        <v>1.028339639621147</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033787905805665</v>
+        <v>0.9984877618769034</v>
       </c>
       <c r="D20">
-        <v>1.036775162025127</v>
+        <v>1.016652029623743</v>
       </c>
       <c r="E20">
-        <v>1.043166995650797</v>
+        <v>1.013476799701488</v>
       </c>
       <c r="F20">
-        <v>1.054264601713168</v>
+        <v>1.018470135892291</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03833243304194</v>
+        <v>1.042893056019905</v>
       </c>
       <c r="J20">
-        <v>1.039998942170529</v>
+        <v>1.026077102487564</v>
       </c>
       <c r="K20">
-        <v>1.040145996733689</v>
+        <v>1.03040825926493</v>
       </c>
       <c r="L20">
-        <v>1.046515687613098</v>
+        <v>1.027286744114251</v>
       </c>
       <c r="M20">
-        <v>1.057575549917715</v>
+        <v>1.032195803360546</v>
       </c>
       <c r="N20">
-        <v>1.041475859957957</v>
+        <v>1.027534249665785</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032853608784784</v>
+        <v>0.9936508254741726</v>
       </c>
       <c r="D21">
-        <v>1.036096730452235</v>
+        <v>1.013290672080319</v>
       </c>
       <c r="E21">
-        <v>1.042301397481694</v>
+        <v>1.009352732488579</v>
       </c>
       <c r="F21">
-        <v>1.053220676170215</v>
+        <v>1.013556979992678</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038116251208975</v>
+        <v>1.04149770780536</v>
       </c>
       <c r="J21">
-        <v>1.039462139638311</v>
+        <v>1.023416422641114</v>
       </c>
       <c r="K21">
-        <v>1.039676508621712</v>
+        <v>1.02802454882215</v>
       </c>
       <c r="L21">
-        <v>1.045858241087183</v>
+        <v>1.024159054779779</v>
       </c>
       <c r="M21">
-        <v>1.056737883009538</v>
+        <v>1.028285983976242</v>
       </c>
       <c r="N21">
-        <v>1.040938295104571</v>
+        <v>1.024869791348769</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032266907265031</v>
+        <v>0.9905461750562847</v>
       </c>
       <c r="D22">
-        <v>1.035670769006111</v>
+        <v>1.011138271085065</v>
       </c>
       <c r="E22">
-        <v>1.041758267731259</v>
+        <v>1.006713099676391</v>
       </c>
       <c r="F22">
-        <v>1.052565738547038</v>
+        <v>1.010411528374055</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037979450212675</v>
+        <v>1.040594575835038</v>
       </c>
       <c r="J22">
-        <v>1.039124634899127</v>
+        <v>1.021706987977026</v>
       </c>
       <c r="K22">
-        <v>1.039381160713687</v>
+        <v>1.026492259471038</v>
       </c>
       <c r="L22">
-        <v>1.045445268606067</v>
+        <v>1.022152731567318</v>
       </c>
       <c r="M22">
-        <v>1.056211950604604</v>
+        <v>1.025779514495615</v>
       </c>
       <c r="N22">
-        <v>1.040600311069946</v>
+        <v>1.023157929091383</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032577859272718</v>
+        <v>0.9921982017976086</v>
       </c>
       <c r="D23">
-        <v>1.035896522199743</v>
+        <v>1.012283088936939</v>
       </c>
       <c r="E23">
-        <v>1.042046085618701</v>
+        <v>1.008116967078821</v>
       </c>
       <c r="F23">
-        <v>1.052912798149668</v>
+        <v>1.012084491048767</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038052054086094</v>
+        <v>1.041075839229149</v>
       </c>
       <c r="J23">
-        <v>1.039303551717642</v>
+        <v>1.022616744087647</v>
       </c>
       <c r="K23">
-        <v>1.039537745185189</v>
+        <v>1.027307811263295</v>
       </c>
       <c r="L23">
-        <v>1.045664155657868</v>
+        <v>1.023220195261255</v>
       </c>
       <c r="M23">
-        <v>1.056490686428154</v>
+        <v>1.027112936572145</v>
       </c>
       <c r="N23">
-        <v>1.040779481970864</v>
+        <v>1.024068977160032</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033803581639846</v>
+        <v>0.9985678159510591</v>
       </c>
       <c r="D24">
-        <v>1.036786545983095</v>
+        <v>1.016707742934502</v>
       </c>
       <c r="E24">
-        <v>1.043181526134349</v>
+        <v>1.013545176216628</v>
       </c>
       <c r="F24">
-        <v>1.05428212718993</v>
+        <v>1.018551584511115</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038336042408541</v>
+        <v>1.042916022045031</v>
       </c>
       <c r="J24">
-        <v>1.040007941716467</v>
+        <v>1.026121108305556</v>
       </c>
       <c r="K24">
-        <v>1.040153864926036</v>
+        <v>1.030447670068549</v>
       </c>
       <c r="L24">
-        <v>1.046526716299824</v>
+        <v>1.027338526791017</v>
       </c>
       <c r="M24">
-        <v>1.057589605969769</v>
+        <v>1.032260562003011</v>
       </c>
       <c r="N24">
-        <v>1.041484872284282</v>
+        <v>1.027578317977086</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035229079029728</v>
+        <v>1.005699797698713</v>
       </c>
       <c r="D25">
-        <v>1.037821902191335</v>
+        <v>1.021681596356134</v>
       </c>
       <c r="E25">
-        <v>1.04450389620507</v>
+        <v>1.019653018867276</v>
       </c>
       <c r="F25">
-        <v>1.055877274995038</v>
+        <v>1.025825951382467</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038661744705029</v>
+        <v>1.044943651696809</v>
       </c>
       <c r="J25">
-        <v>1.04082532364481</v>
+        <v>1.030036851797609</v>
       </c>
       <c r="K25">
-        <v>1.040868090739263</v>
+        <v>1.033952405198525</v>
       </c>
       <c r="L25">
-        <v>1.047529320529386</v>
+        <v>1.031953719566928</v>
       </c>
       <c r="M25">
-        <v>1.058868015701874</v>
+        <v>1.038036157668123</v>
       </c>
       <c r="N25">
-        <v>1.04230341498872</v>
+        <v>1.03149962227404</v>
       </c>
     </row>
   </sheetData>
